--- a/191126_CART/PBT138 calibration for slow reaction/fitted params.xlsx
+++ b/191126_CART/PBT138 calibration for slow reaction/fitted params.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MainCalibrationCode-master\MainCalibrationCode-master\191126_CART\PBT138 calibration for slow reaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160047BA-BED4-43D2-AFA7-9A378D650331}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4810E-36AB-4CA4-A9BD-5377E11B8308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">beta </t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -127,22 +124,19 @@
   </si>
   <si>
     <t>H, 1:20, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,9 +162,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,745 +443,741 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F34A6C-EDD2-44F7-981B-F9ADB7330A49}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>7.7014168561142302</v>
+        <v>0.41452684332818601</v>
       </c>
       <c r="C2">
-        <v>8.6019516741357194</v>
+        <v>4.7801290808857297</v>
       </c>
       <c r="D2">
-        <v>1.27103865950177</v>
+        <v>0.62237519227064098</v>
       </c>
       <c r="E2">
-        <v>9.3940941453815405</v>
+        <v>1.06527245466404</v>
       </c>
       <c r="F2">
-        <v>0.99009583969942405</v>
+        <v>2.7469070968791498</v>
       </c>
       <c r="G2">
-        <v>7.7437391944569898</v>
+        <v>4.3441385016061096</v>
       </c>
       <c r="H2">
-        <v>4.5150510960938597E-2</v>
+        <v>2.722049614176E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>7.7076936177508397</v>
+        <v>0.98649837176629596</v>
       </c>
       <c r="C3">
-        <v>6.2943369347340203</v>
+        <v>6.3104927257538996</v>
       </c>
       <c r="D3">
-        <v>4.1844694076050001E-2</v>
+        <v>0.572190292955153</v>
       </c>
       <c r="E3">
-        <v>7.1018533788746696</v>
+        <v>0.16705222368852601</v>
       </c>
       <c r="F3">
-        <v>0.42532693003092498</v>
+        <v>4.1571427523548898</v>
       </c>
       <c r="G3">
-        <v>7.5356548034950102</v>
+        <v>6.0960782710550703</v>
       </c>
       <c r="H3">
-        <v>2.81507215852679E-2</v>
+        <v>2.0844834714314201E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>6.3404715565571301</v>
+        <v>0.486966704782202</v>
       </c>
       <c r="C4">
-        <v>7.2181993128283803</v>
+        <v>4.3429307935786303</v>
       </c>
       <c r="D4">
-        <v>0.16417624715082199</v>
+        <v>0.51706442422410404</v>
       </c>
       <c r="E4">
-        <v>7.8198593535497496</v>
+        <v>0.20489020052816001</v>
       </c>
       <c r="F4">
-        <v>0.104438137129054</v>
+        <v>2.68178342676093</v>
       </c>
       <c r="G4">
-        <v>8.7476976719670798</v>
+        <v>4.4244323871301097</v>
       </c>
       <c r="H4">
-        <v>3.2132956156303003E-2</v>
+        <v>1.0252227238751001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9.9922161590916296</v>
+        <v>0.34374032715067099</v>
       </c>
       <c r="C5">
-        <v>8.7589373062895106</v>
+        <v>5.2653021932008297</v>
       </c>
       <c r="D5">
-        <v>0.64027224912519098</v>
+        <v>2.1189093522097902</v>
       </c>
       <c r="E5">
-        <v>9.6350377332052393</v>
+        <v>0.35623065030255102</v>
       </c>
       <c r="F5">
-        <v>2.1892773387812898</v>
+        <v>5.5926394467564799</v>
       </c>
       <c r="G5">
-        <v>3.5625337330238001</v>
+        <v>6.0334332526289796</v>
       </c>
       <c r="H5">
-        <v>4.8553345795768699E-2</v>
+        <v>3.7257784380232001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>9.4114183400559792</v>
+        <v>0.46164064540114802</v>
       </c>
       <c r="C6">
-        <v>9.1708046706521191</v>
+        <v>5.1309774063726197</v>
       </c>
       <c r="D6">
-        <v>1.14481648473975E-2</v>
+        <v>1.2511569621865899</v>
       </c>
       <c r="E6">
-        <v>9.8439164729103794</v>
+        <v>2.4027459533369799</v>
       </c>
       <c r="F6">
-        <v>0.29908227555615102</v>
+        <v>8.8275409835412493</v>
       </c>
       <c r="G6">
-        <v>1.0477430346210499</v>
+        <v>9.5377970215359902</v>
       </c>
       <c r="H6">
-        <v>5.2880457764611498E-2</v>
+        <v>3.8930467641468097E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>6.50027285390932</v>
+        <v>0.43365279845008903</v>
       </c>
       <c r="C7">
-        <v>8.7105176416605392</v>
+        <v>3.0552081625502798</v>
       </c>
       <c r="D7">
-        <v>0.27644220433054101</v>
+        <v>0.79330163224303496</v>
       </c>
       <c r="E7">
-        <v>9.7353831486358402</v>
+        <v>0.92648683155399203</v>
       </c>
       <c r="F7">
-        <v>2.7513814564911501</v>
+        <v>7.1905653464314998</v>
       </c>
       <c r="G7">
-        <v>6.4952139158605098</v>
+        <v>7.8070293596465801</v>
       </c>
       <c r="H7">
-        <v>2.3816630549183399E-2</v>
+        <v>2.11729789934933E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>9.3605131077597701</v>
+        <v>8.7547488561422304E-2</v>
       </c>
       <c r="C8">
-        <v>9.0681721485124491</v>
+        <v>1.52712300087516</v>
       </c>
       <c r="D8">
-        <v>0.451687928636061</v>
+        <v>0.194066634707736</v>
       </c>
       <c r="E8">
-        <v>9.7225018703583395</v>
+        <v>0.73867839505791499</v>
       </c>
       <c r="F8">
-        <v>2.7347831146197201</v>
+        <v>8.7443464661916703</v>
       </c>
       <c r="G8">
-        <v>2.81871315107146</v>
+        <v>9.3434240216206597</v>
       </c>
       <c r="H8">
-        <v>0.24203759347961401</v>
+        <v>0.120827459568751</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>9.7011657938309099</v>
+        <v>5.5521930198428798E-2</v>
       </c>
       <c r="C9">
-        <v>9.9059234612264309</v>
+        <v>0.17501783734179799</v>
       </c>
       <c r="D9">
-        <v>0.154765170356505</v>
+        <v>1.1294891277369301</v>
       </c>
       <c r="E9">
-        <v>0.27990588227733898</v>
+        <v>1.8289304080214799E-2</v>
       </c>
       <c r="F9">
-        <v>1.4301227814392901</v>
+        <v>8.2811920379394497</v>
       </c>
       <c r="G9">
-        <v>6.0809335517809897</v>
+        <v>8.4710991189362392</v>
       </c>
       <c r="H9">
-        <v>1.97956417701458</v>
+        <v>2.6442652741975801E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>9.8571713975761792</v>
+        <v>2.6379975982382899</v>
       </c>
       <c r="C10">
-        <v>9.5241357431643099</v>
+        <v>6.8715855969998403</v>
       </c>
       <c r="D10">
-        <v>0.290299685979935</v>
+        <v>0.98604109519525296</v>
       </c>
       <c r="E10">
-        <v>0.35476145733877901</v>
+        <v>0.20644981332467899</v>
       </c>
       <c r="F10">
-        <v>2.88052541596723</v>
+        <v>4.2384023563314601</v>
       </c>
       <c r="G10">
-        <v>2.6480774014506698</v>
+        <v>4.2908046196012197</v>
       </c>
       <c r="H10">
-        <v>1.27891552036171</v>
+        <v>0.125346867629471</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>9.8566474295016206</v>
+        <v>2.40225204591599</v>
       </c>
       <c r="C11">
-        <v>9.9107925453982801</v>
+        <v>7.7771290670838704</v>
       </c>
       <c r="D11">
-        <v>0.113348175667523</v>
+        <v>3.5898626100194999</v>
       </c>
       <c r="E11">
-        <v>4.6711308504899698</v>
+        <v>7.6239543161822096</v>
       </c>
       <c r="F11">
-        <v>1.55554869382705</v>
+        <v>2.5147133922796399</v>
       </c>
       <c r="G11">
-        <v>2.0810417970866699</v>
+        <v>4.76898719706222</v>
       </c>
       <c r="H11">
-        <v>0.28751221176610198</v>
+        <v>1.46671237800384E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>9.9780978253130304</v>
+        <v>1.85226129021881</v>
       </c>
       <c r="C12">
-        <v>9.6983138461700698</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.6076149287513799E-4</v>
+        <v>1.45284439539095</v>
+      </c>
+      <c r="D12">
+        <v>4.7905769942577203</v>
       </c>
       <c r="E12">
-        <v>4.0305562860138</v>
+        <v>9.9871864922945708</v>
       </c>
       <c r="F12">
-        <v>1.8831492141753201</v>
+        <v>6.8503804564867599</v>
       </c>
       <c r="G12">
-        <v>7.71414502387191</v>
+        <v>9.6563160848808902</v>
       </c>
       <c r="H12">
-        <v>0.37529071049436202</v>
+        <v>1.3350605880456999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>9.9045197770001998</v>
+        <v>1.4115423617995599</v>
       </c>
       <c r="C13">
-        <v>9.4250905131898293</v>
+        <v>0.162074139585376</v>
       </c>
       <c r="D13">
-        <v>9.3863760722065603E-3</v>
+        <v>2.58198932840302</v>
       </c>
       <c r="E13">
-        <v>5.6519671318953604</v>
+        <v>6.1289008342110103</v>
       </c>
       <c r="F13">
-        <v>2.33435695413081</v>
+        <v>6.0606435036031696</v>
       </c>
       <c r="G13">
-        <v>2.26961414443298</v>
+        <v>8.9955613964316896</v>
       </c>
       <c r="H13">
-        <v>0.230122196586105</v>
+        <v>3.0372839004345E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>9.9551751296856299</v>
+        <v>2.7645764451561101</v>
       </c>
       <c r="C14">
-        <v>9.9280917728764901</v>
+        <v>1.7125029040044899</v>
       </c>
       <c r="D14">
-        <v>1.3196134259214601E-3</v>
+        <v>0.364712139376005</v>
       </c>
       <c r="E14">
-        <v>4.0015037484226301</v>
+        <v>9.4015522105063205</v>
       </c>
       <c r="F14">
-        <v>1.31870542415192</v>
+        <v>0.91736885030386095</v>
       </c>
       <c r="G14">
-        <v>5.2287387810740302</v>
+        <v>3.5359869254238601</v>
       </c>
       <c r="H14">
-        <v>0.307542508163343</v>
+        <v>2.2850997619643701E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>9.8851959250455899</v>
+        <v>0.43296759894746201</v>
       </c>
       <c r="C15">
-        <v>9.5747686719009604</v>
+        <v>1.2888788758813201</v>
       </c>
       <c r="D15">
-        <v>2.6580192362584801E-2</v>
+        <v>0.41804536513336898</v>
       </c>
       <c r="E15">
-        <v>4.0650291058423598</v>
+        <v>0.29376448518503301</v>
       </c>
       <c r="F15">
-        <v>2.23742098485934</v>
+        <v>8.8862594988785196E-2</v>
       </c>
       <c r="G15">
-        <v>2.48552544139786</v>
+        <v>2.41657395243231</v>
       </c>
       <c r="H15">
-        <v>0.33493029773525301</v>
+        <v>2.4298634006065601E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>9.9231781443351501</v>
+        <v>2.4074090732073099</v>
       </c>
       <c r="C16">
-        <v>9.99671965872135</v>
+        <v>0.80641105739502805</v>
       </c>
       <c r="D16">
-        <v>7.9797060739228598E-2</v>
+        <v>0.22284908166348499</v>
       </c>
       <c r="E16">
-        <v>4.5614392898888001</v>
+        <v>4.5923797561166202</v>
       </c>
       <c r="F16">
-        <v>1.0055552695285199</v>
+        <v>2.1669962409219998</v>
       </c>
       <c r="G16">
-        <v>3.4121593161608699</v>
+        <v>8.7045040169626002</v>
       </c>
       <c r="H16">
-        <v>0.41316201330247698</v>
+        <v>2.1963172871818501E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>9.7398257571034108</v>
+        <v>1.71770874180825</v>
       </c>
       <c r="C17">
-        <v>9.99106762444476</v>
+        <v>0.68021483757984802</v>
       </c>
       <c r="D17">
-        <v>3.5512242776817499E-2</v>
+        <v>8.812783434384E-2</v>
       </c>
       <c r="E17">
-        <v>1.90980076073671</v>
+        <v>2.4721487485428799</v>
       </c>
       <c r="F17">
-        <v>2.4231991687419598</v>
+        <v>0.23009289396491001</v>
       </c>
       <c r="G17">
-        <v>4.0820459968935197</v>
+        <v>2.3321133456415399</v>
       </c>
       <c r="H17">
-        <v>0.31606737903404802</v>
+        <v>1.09591668370388E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>9.7801558468931304</v>
+        <v>1.39540613731606</v>
       </c>
       <c r="C18">
-        <v>9.8670354667122595</v>
+        <v>0.47466526268741499</v>
       </c>
       <c r="D18">
-        <v>0.20001510408985201</v>
+        <v>5.8157710309509801E-2</v>
       </c>
       <c r="E18">
-        <v>2.0422076290566999</v>
+        <v>1.52607481404192</v>
       </c>
       <c r="F18">
-        <v>2.5590329863479901</v>
+        <v>0.27596858634965798</v>
       </c>
       <c r="G18">
-        <v>1.57604305076202</v>
+        <v>3.9843494188301101</v>
       </c>
       <c r="H18">
-        <v>0.30864797287776102</v>
+        <v>1.0704818015003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>9.5516675814143799</v>
+        <v>2.0713000770891998</v>
       </c>
       <c r="C19">
-        <v>9.7816418516562909</v>
+        <v>0.39312757959589001</v>
       </c>
       <c r="D19">
-        <v>0.26577964503592899</v>
+        <v>6.3058017401872807E-2</v>
       </c>
       <c r="E19">
-        <v>2.2480328843013799</v>
+        <v>4.3668677055148999</v>
       </c>
       <c r="F19">
-        <v>2.3396309330406702</v>
+        <v>1.7692614717427799</v>
       </c>
       <c r="G19">
-        <v>2.7070036193892801</v>
+        <v>4.8148353992874702</v>
       </c>
       <c r="H19">
-        <v>0.39599332555248801</v>
+        <v>2.0420641318002999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>6.2798573242108899</v>
+        <v>1.2489641105557501</v>
       </c>
       <c r="C20">
-        <v>9.0938662758079793</v>
+        <v>0.68648722771124304</v>
       </c>
       <c r="D20">
-        <v>0.32523764253523502</v>
+        <v>0.31324234054142502</v>
       </c>
       <c r="E20">
-        <v>8.4617743992474708</v>
+        <v>8.9375411889760295E-2</v>
       </c>
       <c r="F20">
-        <v>1.6303509459955301</v>
+        <v>7.20053110533517E-2</v>
       </c>
       <c r="G20">
-        <v>3.86827853175624</v>
+        <v>2.4569144716053901</v>
       </c>
       <c r="H20">
-        <v>3.6398785996756298E-2</v>
+        <v>1.99858316648126E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.63540052001014402</v>
+        <v>2.1034028034528101</v>
       </c>
       <c r="C21">
-        <v>0.23786621281773701</v>
+        <v>4.7262314963100804</v>
       </c>
       <c r="D21">
-        <v>1.41625116072739E-2</v>
+        <v>0.250625310074923</v>
       </c>
       <c r="E21">
-        <v>2.6588145118944402</v>
+        <v>5.3362977354416596</v>
       </c>
       <c r="F21">
-        <v>2.9739297899338002</v>
+        <v>0.24641884030480901</v>
       </c>
       <c r="G21">
-        <v>1.00530261345507</v>
+        <v>4.0953217556404402</v>
       </c>
       <c r="H21">
-        <v>47.816944944899802</v>
+        <v>1.6348077554617702E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>9.6517595941227405</v>
+        <v>2.23096321462942</v>
       </c>
       <c r="C22">
-        <v>9.7989504966971506</v>
+        <v>6.3408371602947405E-2</v>
       </c>
       <c r="D22">
-        <v>1.2536789448446699</v>
+        <v>0.24341145208048501</v>
       </c>
       <c r="E22">
-        <v>3.5432309369267201</v>
+        <v>6.4195400080610501</v>
       </c>
       <c r="F22">
-        <v>2.04110407036042</v>
+        <v>1.2999115862296999</v>
       </c>
       <c r="G22">
-        <v>1.71346778661871</v>
+        <v>3.86994465304543</v>
       </c>
       <c r="H22">
-        <v>3.2738394086951603E-2</v>
+        <v>3.9951408868767599E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>9.2256245472511207</v>
+        <v>1.46081333916217</v>
       </c>
       <c r="C23">
-        <v>9.6790135329097708</v>
+        <v>0.109946342571989</v>
       </c>
       <c r="D23">
-        <v>1.4224530234639801</v>
+        <v>5.3070027498718003E-2</v>
       </c>
       <c r="E23">
-        <v>3.2952837653720102</v>
+        <v>0.39745385613562201</v>
       </c>
       <c r="F23">
-        <v>1.4398070968490599</v>
+        <v>0.11779320833609</v>
       </c>
       <c r="G23">
-        <v>2.8806975963786599</v>
+        <v>2.4591262324699099</v>
       </c>
       <c r="H23">
-        <v>5.9939991871216999E-2</v>
+        <v>1.7650922389393E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>8.9076748239305807</v>
+        <v>2.0214382115363598</v>
       </c>
       <c r="C24">
-        <v>9.9380308744193293</v>
+        <v>0.58472973168557896</v>
       </c>
       <c r="D24">
-        <v>1.20812493718644</v>
+        <v>6.7594742844723596E-2</v>
       </c>
       <c r="E24">
-        <v>3.12085167973459</v>
+        <v>0.318857746440108</v>
       </c>
       <c r="F24">
-        <v>2.76865586335443</v>
+        <v>0.34700516498295497</v>
       </c>
       <c r="G24">
-        <v>4.0406086401690402</v>
+        <v>2.5641997528186899</v>
       </c>
       <c r="H24">
-        <v>3.4175452737813403E-2</v>
+        <v>5.08651785205105E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>7.3856719101841799</v>
+        <v>2.87231424892863</v>
       </c>
       <c r="C25">
-        <v>9.8806099483297398</v>
+        <v>0.173896049486752</v>
       </c>
       <c r="D25">
-        <v>1.29163268554027</v>
+        <v>7.4062816332738396E-2</v>
       </c>
       <c r="E25">
-        <v>3.0226401483781302</v>
+        <v>8.9411877529012393</v>
       </c>
       <c r="F25">
-        <v>2.0244096321190401</v>
+        <v>4.7396360258809898</v>
       </c>
       <c r="G25">
-        <v>2.4853569956574502</v>
+        <v>6.7701899790965996</v>
       </c>
       <c r="H25">
-        <v>5.1797976697809001E-2</v>
+        <v>5.7556686407811398E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>9.5996789990124594</v>
+        <v>1.93174946440609</v>
       </c>
       <c r="C26">
-        <v>8.9410042550049909</v>
+        <v>1.17939329543159</v>
       </c>
       <c r="D26">
-        <v>1.68388783052386</v>
+        <v>2.3611117921792699E-2</v>
       </c>
       <c r="E26">
-        <v>3.4033993851562099</v>
+        <v>0.185824363757703</v>
       </c>
       <c r="F26">
-        <v>2.4018308550804601</v>
+        <v>0.47518065986047697</v>
       </c>
       <c r="G26">
-        <v>4.5139033159003397</v>
+        <v>2.3770748390783201</v>
       </c>
       <c r="H26">
-        <v>9.8568111109587797E-2</v>
+        <v>0.93065898929338398</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>8.9293982715235494</v>
+        <v>2.9435922560650898</v>
       </c>
       <c r="C27">
-        <v>9.8381034759064505</v>
+        <v>0.13715574016931401</v>
       </c>
       <c r="D27">
-        <v>2.41293814153159</v>
+        <v>1.40074025895165E-2</v>
       </c>
       <c r="E27">
-        <v>4.2545766609544797</v>
+        <v>0.71774731864771601</v>
       </c>
       <c r="F27">
-        <v>2.4410860613851701</v>
+        <v>2.93465607317167</v>
       </c>
       <c r="G27">
-        <v>7.7719364230582597</v>
+        <v>5.14066676459547</v>
       </c>
       <c r="H27">
-        <v>5.0073926802908203E-2</v>
+        <v>0.204567055923639</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>9.6186789972878604</v>
+        <v>2.3869729132109101</v>
       </c>
       <c r="C28">
-        <v>9.8361395820831099</v>
+        <v>0.21137021917192</v>
       </c>
       <c r="D28">
-        <v>2.6973334880073199</v>
+        <v>1.27765499696648E-2</v>
       </c>
       <c r="E28">
-        <v>4.3994888548892099</v>
+        <v>1.2405795907798201</v>
       </c>
       <c r="F28">
-        <v>1.5549348834142001</v>
+        <v>1.4514722095821699</v>
       </c>
       <c r="G28">
-        <v>2.8754372335049099</v>
+        <v>3.5533886216753201</v>
       </c>
       <c r="H28">
-        <v>0.13941400072829399</v>
+        <v>9.8195329167225107E-2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>